--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1319.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1319.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.031173339968409</v>
+        <v>0.9975859522819519</v>
       </c>
       <c r="B1">
-        <v>2.478100222355553</v>
+        <v>1.817065834999084</v>
       </c>
       <c r="C1">
-        <v>5.122493856722305</v>
+        <v>6.884543418884277</v>
       </c>
       <c r="D1">
-        <v>2.294754401525324</v>
+        <v>2.89591646194458</v>
       </c>
       <c r="E1">
-        <v>1.246359259766634</v>
+        <v>0.4142286777496338</v>
       </c>
     </row>
   </sheetData>
